--- a/data/processed/state_overviews/virginia_overview.xlsx
+++ b/data/processed/state_overviews/virginia_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2792</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2,792</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Accomack County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>26</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Albemarle County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>49</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Alexandria city</t>
         </is>
       </c>
-      <c r="B4">
-        <v>145</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Alleghany County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>13</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Amelia County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Amherst County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Appomattox County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Arlington County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>168</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Augusta County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>22</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Bath County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>5</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Bedford County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>23</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Bland County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>3</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Botetourt County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>6</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Bristol city</t>
         </is>
       </c>
-      <c r="B15">
-        <v>6</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Brunswick County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>7</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Buchanan County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Buckingham County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>5</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Buena Vista city</t>
         </is>
       </c>
-      <c r="B19">
-        <v>4</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Campbell County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Caroline County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>4</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Charles City County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Charlotte County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>6</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Charlottesville city</t>
         </is>
       </c>
-      <c r="B25">
-        <v>69</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Chesapeake city</t>
         </is>
       </c>
-      <c r="B26">
-        <v>19</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Chesterfield County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>37</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Clarke County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>10</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Colonial Heights city</t>
         </is>
       </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Covington city</t>
         </is>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Craig County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Culpeper County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>20</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Cumberland County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>1</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Danville city</t>
         </is>
       </c>
-      <c r="B34">
-        <v>22</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Dickenson County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>3</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Dinwiddie County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Emporia city</t>
         </is>
       </c>
-      <c r="B37">
-        <v>2</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Essex County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>5</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Fairfax County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>342</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Fairfax city</t>
         </is>
       </c>
-      <c r="B40">
-        <v>29</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Falls Church city</t>
         </is>
       </c>
-      <c r="B41">
-        <v>15</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Fauquier County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>40</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Floyd County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>2</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Fluvanna County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>6</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>14</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Franklin city</t>
         </is>
       </c>
-      <c r="B46">
-        <v>4</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Frederick County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>13</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Fredericksburg city</t>
         </is>
       </c>
-      <c r="B48">
-        <v>30</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Galax city</t>
         </is>
       </c>
-      <c r="B49">
-        <v>6</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Giles County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>3</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Gloucester County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>13</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Goochland County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>8</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Grayson County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>6</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>5</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Greensville County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>6</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Halifax County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>13</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Hampton city</t>
         </is>
       </c>
-      <c r="B57">
-        <v>20</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Hanover County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>18</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Harrisonburg city</t>
         </is>
       </c>
-      <c r="B59">
-        <v>41</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Henrico County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>113</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Henry County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>10</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Highland County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>5</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Hopewell city</t>
         </is>
       </c>
-      <c r="B63">
-        <v>4</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Isle of Wight County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>8</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>James City County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>33</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>King William County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>4</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>King and Queen County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Lancaster County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>3</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>2</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Lexington city</t>
         </is>
       </c>
-      <c r="B70">
-        <v>10</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>Loudoun County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>93</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,8 +2706,10 @@
           <t>Louisa County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>12</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,8 +2738,10 @@
           <t>Lunenburg County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>3</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,8 +2770,10 @@
           <t>Lynchburg city</t>
         </is>
       </c>
-      <c r="B74">
-        <v>46</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,8 +2802,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>8</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,8 +2834,10 @@
           <t>Manassas city</t>
         </is>
       </c>
-      <c r="B76">
-        <v>18</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,8 +2866,10 @@
           <t>Martinsville city</t>
         </is>
       </c>
-      <c r="B77">
-        <v>16</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,8 +2898,10 @@
           <t>Mathews County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>5</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,8 +2930,10 @@
           <t>Mecklenburg County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>18</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,8 +2962,10 @@
           <t>Middlesex County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>10</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,8 +2994,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>42</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,8 +3026,10 @@
           <t>Nelson County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>14</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,8 +3058,10 @@
           <t>New Kent County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>2</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,8 +3090,10 @@
           <t>Newport News city</t>
         </is>
       </c>
-      <c r="B84">
-        <v>32</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2954,8 +3122,10 @@
           <t>Norfolk city</t>
         </is>
       </c>
-      <c r="B85">
-        <v>75</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2984,8 +3154,10 @@
           <t>Northampton County</t>
         </is>
       </c>
-      <c r="B86">
-        <v>14</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3014,8 +3186,10 @@
           <t>Northumberland County</t>
         </is>
       </c>
-      <c r="B87">
-        <v>13</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3044,8 +3218,10 @@
           <t>Norton city</t>
         </is>
       </c>
-      <c r="B88">
-        <v>3</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3074,8 +3250,10 @@
           <t>Nottoway County</t>
         </is>
       </c>
-      <c r="B89">
-        <v>7</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3104,8 +3282,10 @@
           <t>Orange County</t>
         </is>
       </c>
-      <c r="B90">
-        <v>12</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3134,8 +3314,10 @@
           <t>Page County</t>
         </is>
       </c>
-      <c r="B91">
-        <v>7</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3164,8 +3346,10 @@
           <t>Patrick County</t>
         </is>
       </c>
-      <c r="B92">
-        <v>9</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3194,8 +3378,10 @@
           <t>Petersburg city</t>
         </is>
       </c>
-      <c r="B93">
-        <v>11</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3224,8 +3410,10 @@
           <t>Pittsylvania County</t>
         </is>
       </c>
-      <c r="B94">
-        <v>18</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3254,8 +3442,10 @@
           <t>Poquoson city</t>
         </is>
       </c>
-      <c r="B95">
-        <v>2</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3284,8 +3474,10 @@
           <t>Portsmouth city</t>
         </is>
       </c>
-      <c r="B96">
-        <v>9</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3314,8 +3506,10 @@
           <t>Powhatan County</t>
         </is>
       </c>
-      <c r="B97">
-        <v>3</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3344,8 +3538,10 @@
           <t>Prince Edward County</t>
         </is>
       </c>
-      <c r="B98">
-        <v>16</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3374,8 +3570,10 @@
           <t>Prince George County</t>
         </is>
       </c>
-      <c r="B99">
-        <v>3</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3404,8 +3602,10 @@
           <t>Prince William County</t>
         </is>
       </c>
-      <c r="B100">
-        <v>46</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3434,8 +3634,10 @@
           <t>Pulaski County</t>
         </is>
       </c>
-      <c r="B101">
-        <v>9</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3464,8 +3666,10 @@
           <t>Radford city</t>
         </is>
       </c>
-      <c r="B102">
-        <v>4</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3494,8 +3698,10 @@
           <t>Rappahannock County</t>
         </is>
       </c>
-      <c r="B103">
-        <v>10</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3524,8 +3730,10 @@
           <t>Richmond County</t>
         </is>
       </c>
-      <c r="B104">
-        <v>4</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3554,8 +3762,10 @@
           <t>Richmond city</t>
         </is>
       </c>
-      <c r="B105">
-        <v>172</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3584,8 +3794,10 @@
           <t>Roanoke County</t>
         </is>
       </c>
-      <c r="B106">
-        <v>12</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3614,8 +3826,10 @@
           <t>Roanoke city</t>
         </is>
       </c>
-      <c r="B107">
-        <v>69</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3644,8 +3858,10 @@
           <t>Rockbridge County</t>
         </is>
       </c>
-      <c r="B108">
-        <v>17</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3674,8 +3890,10 @@
           <t>Rockingham County</t>
         </is>
       </c>
-      <c r="B109">
-        <v>23</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3704,8 +3922,10 @@
           <t>Russell County</t>
         </is>
       </c>
-      <c r="B110">
-        <v>7</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3734,8 +3954,10 @@
           <t>Salem city</t>
         </is>
       </c>
-      <c r="B111">
-        <v>7</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3764,8 +3986,10 @@
           <t>Scott County</t>
         </is>
       </c>
-      <c r="B112">
-        <v>12</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3794,8 +4018,10 @@
           <t>Shenandoah County</t>
         </is>
       </c>
-      <c r="B113">
-        <v>25</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3824,8 +4050,10 @@
           <t>Smyth County</t>
         </is>
       </c>
-      <c r="B114">
-        <v>9</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3854,8 +4082,10 @@
           <t>Southampton County</t>
         </is>
       </c>
-      <c r="B115">
-        <v>6</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3884,8 +4114,10 @@
           <t>Spotsylvania County</t>
         </is>
       </c>
-      <c r="B116">
-        <v>15</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3914,8 +4146,10 @@
           <t>Stafford County</t>
         </is>
       </c>
-      <c r="B117">
-        <v>11</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3944,8 +4178,10 @@
           <t>Staunton city</t>
         </is>
       </c>
-      <c r="B118">
-        <v>27</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3974,8 +4210,10 @@
           <t>Suffolk city</t>
         </is>
       </c>
-      <c r="B119">
-        <v>8</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4004,8 +4242,10 @@
           <t>Surry County</t>
         </is>
       </c>
-      <c r="B120">
-        <v>1</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4034,8 +4274,10 @@
           <t>Sussex County</t>
         </is>
       </c>
-      <c r="B121">
-        <v>3</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4064,8 +4306,10 @@
           <t>Tazewell County</t>
         </is>
       </c>
-      <c r="B122">
-        <v>11</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4094,8 +4338,10 @@
           <t>Virginia Beach city</t>
         </is>
       </c>
-      <c r="B123">
-        <v>73</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4124,8 +4370,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B124">
-        <v>16</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4154,8 +4402,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B125">
-        <v>30</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4184,8 +4434,10 @@
           <t>Waynesboro city</t>
         </is>
       </c>
-      <c r="B126">
-        <v>12</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4214,8 +4466,10 @@
           <t>Westmoreland County</t>
         </is>
       </c>
-      <c r="B127">
-        <v>7</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4244,8 +4498,10 @@
           <t>Williamsburg city</t>
         </is>
       </c>
-      <c r="B128">
-        <v>12</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4274,8 +4530,10 @@
           <t>Winchester city</t>
         </is>
       </c>
-      <c r="B129">
-        <v>39</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4304,8 +4562,10 @@
           <t>Wise County</t>
         </is>
       </c>
-      <c r="B130">
-        <v>12</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4334,8 +4594,10 @@
           <t>Wythe County</t>
         </is>
       </c>
-      <c r="B131">
-        <v>9</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4364,8 +4626,10 @@
           <t>York County</t>
         </is>
       </c>
-      <c r="B132">
-        <v>4</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4394,27 +4658,29 @@
           <t>Manassas Park city</t>
         </is>
       </c>
-      <c r="B133">
-        <v>0</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -4424,27 +4690,61 @@
           <t>King George County</t>
         </is>
       </c>
-      <c r="B134">
-        <v>0</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2,792</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>$4,571,835,868</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>10.66%</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>-9.96%</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -4499,8 +4799,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>216</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4529,8 +4831,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>181</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4559,8 +4863,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>261</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4589,8 +4895,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B5">
-        <v>148</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4619,8 +4927,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B6">
-        <v>144</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4649,8 +4959,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B7">
-        <v>283</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4679,8 +4991,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B8">
-        <v>346</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4709,8 +5023,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B9">
-        <v>379</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4739,8 +5055,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B10">
-        <v>132</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4769,8 +5087,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B11">
-        <v>436</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4799,8 +5119,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B12">
-        <v>266</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4829,8 +5151,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>2792</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2,792</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4904,8 +5228,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>975</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4934,8 +5260,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>730</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4964,8 +5292,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>446</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4994,8 +5324,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>158</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5024,8 +5356,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>310</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -5054,8 +5388,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>173</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5084,8 +5420,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2792</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2,792</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -5159,8 +5497,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>282</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -5189,8 +5529,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>253</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -5219,8 +5561,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>110</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -5249,8 +5593,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>281</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5279,8 +5625,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>14</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -5309,8 +5657,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>825</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5339,8 +5689,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>62</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -5369,8 +5721,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>252</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -5399,8 +5753,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>64</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -5429,8 +5785,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>614</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5459,8 +5817,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>35</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5489,8 +5849,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>2792</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2,792</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/virginia_overview.xlsx
+++ b/data/processed/state_overviews/virginia_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,1031 +431,1031 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Accomack County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$16,371,418</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-42.26%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Albemarle County</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2,792</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$28,923,936</t>
+          <t>$4,571,835,868</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.94%</t>
+          <t>10.66%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-3.42%</t>
+          <t>-9.96%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>59.18%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alexandria city</t>
+          <t>Accomack County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$315,775,900</t>
+          <t>$16,371,418</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>3.26%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-3.08%</t>
+          <t>-42.26%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>55.17%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alleghany County</t>
+          <t>Albemarle County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,515,016</t>
+          <t>$28,923,936</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.54%</t>
+          <t>15.94%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-43.88%</t>
+          <t>-3.42%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>59.18%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amelia County</t>
+          <t>Alexandria city</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$766,238</t>
+          <t>$315,775,900</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-90.03%</t>
+          <t>11.30%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-160.46%</t>
+          <t>-3.08%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>55.17%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amherst County</t>
+          <t>Alleghany County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$7,114,822</t>
+          <t>$2,515,016</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>10.54%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-45.12%</t>
+          <t>-43.88%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Appomattox County</t>
+          <t>Amelia County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$762,894</t>
+          <t>$766,238</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.87%</t>
+          <t>-90.03%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-13.98%</t>
+          <t>-160.46%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Arlington County</t>
+          <t>Amherst County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,224,982,474</t>
+          <t>$7,114,822</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-4.94%</t>
+          <t>-45.12%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>57.74%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Augusta County</t>
+          <t>Appomattox County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$17,020,409</t>
+          <t>$762,894</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.96%</t>
+          <t>12.87%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-38.31%</t>
+          <t>-13.98%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bath County</t>
+          <t>Arlington County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$2,154,967</t>
+          <t>$1,224,982,474</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-9.49%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-85.08%</t>
+          <t>-4.94%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>57.74%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bedford County</t>
+          <t>Augusta County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$14,155,421</t>
+          <t>$17,020,409</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.48%</t>
+          <t>4.96%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14.73%</t>
+          <t>-38.31%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>43.48%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bland County</t>
+          <t>Bath County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$4,268,469</t>
+          <t>$2,154,967</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-15.06%</t>
+          <t>-9.49%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-42.29%</t>
+          <t>-85.08%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Botetourt County</t>
+          <t>Bedford County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$426,502</t>
+          <t>$14,155,421</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19.46%</t>
+          <t>20.48%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-62.58%</t>
+          <t>14.73%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>43.48%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bristol city</t>
+          <t>Bland County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,922,422</t>
+          <t>$4,268,469</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16.00%</t>
+          <t>-15.06%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-6.37%</t>
+          <t>-42.29%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brunswick County</t>
+          <t>Botetourt County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$1,265,466</t>
+          <t>$426,502</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-1.10%</t>
+          <t>19.46%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-64.35%</t>
+          <t>-62.58%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Buchanan County</t>
+          <t>Bristol city</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$4,271,107</t>
+          <t>$1,922,422</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>16.00%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-20.03%</t>
+          <t>-6.37%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Buckingham County</t>
+          <t>Brunswick County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$18,773,342</t>
+          <t>$1,265,466</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32.16%</t>
+          <t>-1.10%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-3.34%</t>
+          <t>-64.35%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Buena Vista city</t>
+          <t>Buchanan County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$6,088,546</t>
+          <t>$4,271,107</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.28%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-45.63%</t>
+          <t>-20.03%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Campbell County</t>
+          <t>Buckingham County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$4,018,705</t>
+          <t>$18,773,342</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29.21%</t>
+          <t>32.16%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>-3.34%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Caroline County</t>
+          <t>Buena Vista city</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$197,023</t>
+          <t>$6,088,546</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-2.95%</t>
+          <t>7.28%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-5.26%</t>
+          <t>-45.63%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Campbell County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$3,833,416</t>
+          <t>$4,018,705</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-3.77%</t>
+          <t>29.21%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-19.16%</t>
+          <t>-0.07%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Charles City County</t>
+          <t>Caroline County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$48,177</t>
+          <t>$197,023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12.00%</t>
+          <t>-2.95%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-17.26%</t>
+          <t>-5.26%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Charlotte County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$933,538</t>
+          <t>$3,833,416</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.86%</t>
+          <t>-3.77%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-50.16%</t>
+          <t>-19.16%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Charlottesville city</t>
+          <t>Charles City County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$44,472,505</t>
+          <t>$48,177</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15.32%</t>
+          <t>12.00%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-5.48%</t>
+          <t>-17.26%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>59.42%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chesapeake city</t>
+          <t>Charlotte County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$15,900,476</t>
+          <t>$933,538</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9.82%</t>
+          <t>4.86%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-2.55%</t>
+          <t>-50.16%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>52.63%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chesterfield County</t>
+          <t>Charlottesville city</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$12,054,646</t>
+          <t>$44,472,505</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.50%</t>
+          <t>15.32%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-15.11%</t>
+          <t>-5.48%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>75.68%</t>
+          <t>59.42%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clarke County</t>
+          <t>Chesapeake city</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,763,477</t>
+          <t>$15,900,476</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>23.64%</t>
+          <t>9.82%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>-2.55%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>52.63%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colonial Heights city</t>
+          <t>Chesterfield County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$436,288</t>
+          <t>$12,054,646</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13.71%</t>
+          <t>5.50%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>-15.11%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.68%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Covington city</t>
+          <t>Clarke County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$368,537</t>
+          <t>$1,763,477</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-4.91%</t>
+          <t>23.64%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-91.90%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Craig County</t>
+          <t>Colonial Heights city</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$176,600</t>
+          <t>$436,288</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>43.88%</t>
+          <t>13.71%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26.78%</t>
+          <t>0.97%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Culpeper County</t>
+          <t>Covington city</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$9,716,585</t>
+          <t>$368,537</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.84%</t>
+          <t>-4.91%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-39.03%</t>
+          <t>-91.90%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cumberland County</t>
+          <t>Craig County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1465,701 +1465,701 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$190,952</t>
+          <t>$176,600</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>61.91%</t>
+          <t>43.88%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-38.09%</t>
+          <t>26.78%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Danville city</t>
+          <t>Culpeper County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$37,397,299</t>
+          <t>$9,716,585</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>8.84%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-25.96%</t>
+          <t>-39.03%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>86.36%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dickenson County</t>
+          <t>Cumberland County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$275,125</t>
+          <t>$190,952</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23.36%</t>
+          <t>61.91%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-11.96%</t>
+          <t>-38.09%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dinwiddie County</t>
+          <t>Danville city</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$1,700</t>
+          <t>$37,397,299</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>-25.96%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>86.36%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Emporia city</t>
+          <t>Dickenson County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$925,921</t>
+          <t>$275,125</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.58%</t>
+          <t>23.36%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-42.33%</t>
+          <t>-11.96%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Essex County</t>
+          <t>Dinwiddie County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$1,604,530</t>
+          <t>$1,700</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15.39%</t>
+          <t>0.81%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-24.83%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fairfax County</t>
+          <t>Emporia city</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$930,901,755</t>
+          <t>$925,921</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11.52%</t>
+          <t>4.58%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-4.33%</t>
+          <t>-42.33%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>58.19%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fairfax city</t>
+          <t>Essex County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$57,897,099</t>
+          <t>$1,604,530</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.32%</t>
+          <t>15.39%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-34.73%</t>
+          <t>-24.83%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>93.10%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Falls Church city</t>
+          <t>Fairfax County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>342</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$2,461,411</t>
+          <t>$930,901,755</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-4.78%</t>
+          <t>-4.33%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>53.33%</t>
+          <t>58.19%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fauquier County</t>
+          <t>Fairfax city</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$19,597,023</t>
+          <t>$57,897,099</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14.59%</t>
+          <t>7.32%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-2.97%</t>
+          <t>-34.73%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>55.00%</t>
+          <t>93.10%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Floyd County</t>
+          <t>Falls Church city</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$350,190</t>
+          <t>$2,461,411</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15.64%</t>
+          <t>5.48%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-26.26%</t>
+          <t>-4.78%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>53.33%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fluvanna County</t>
+          <t>Fauquier County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,126,345</t>
+          <t>$19,597,023</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.43%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-13.88%</t>
+          <t>-2.97%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>55.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Floyd County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$13,633,199</t>
+          <t>$350,190</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.81%</t>
+          <t>15.64%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-35.01%</t>
+          <t>-26.26%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>92.86%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Franklin city</t>
+          <t>Fluvanna County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$13,522,234</t>
+          <t>$1,126,345</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>6.43%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-76.77%</t>
+          <t>-13.88%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Frederick County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$1,593,601</t>
+          <t>$13,633,199</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17.81%</t>
+          <t>2.81%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>-35.01%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>92.86%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fredericksburg city</t>
+          <t>Franklin city</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$29,318,414</t>
+          <t>$13,522,234</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8.64%</t>
+          <t>1.13%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-11.97%</t>
+          <t>-76.77%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Galax city</t>
+          <t>Frederick County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$4,693,563</t>
+          <t>$1,593,601</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.93%</t>
+          <t>17.81%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-33.44%</t>
+          <t>2.31%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>38.46%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Giles County</t>
+          <t>Fredericksburg city</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$1,085,552</t>
+          <t>$29,318,414</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>30.61%</t>
+          <t>8.64%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-2.55%</t>
+          <t>-11.97%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gloucester County</t>
+          <t>Galax city</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$5,477,649</t>
+          <t>$4,693,563</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>7.93%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-17.66%</t>
+          <t>-33.44%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Goochland County</t>
+          <t>Giles County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$3,350,380</t>
+          <t>$1,085,552</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15.63%</t>
+          <t>30.61%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-12.22%</t>
+          <t>-2.55%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Grayson County</t>
+          <t>Gloucester County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$371,098</t>
+          <t>$5,477,649</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>11.16%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-44.16%</t>
+          <t>-17.66%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Goochland County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,440,600</t>
+          <t>$3,350,380</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>15.66%</t>
+          <t>15.63%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-19.83%</t>
+          <t>-12.22%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Greensville County</t>
+          <t>Grayson County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2169,465 +2169,465 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$1,486,420</t>
+          <t>$371,098</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.17%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-29.83%</t>
+          <t>-44.16%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Halifax County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$9,806,812</t>
+          <t>$1,440,600</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9.86%</t>
+          <t>15.66%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-40.53%</t>
+          <t>-19.83%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hampton city</t>
+          <t>Greensville County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$64,651,959</t>
+          <t>$1,486,420</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.98%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-11.75%</t>
+          <t>-29.83%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hanover County</t>
+          <t>Halifax County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$5,799,141</t>
+          <t>$9,806,812</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>9.82%</t>
+          <t>9.86%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-8.43%</t>
+          <t>-40.53%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Harrisonburg city</t>
+          <t>Hampton city</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$24,688,977</t>
+          <t>$64,651,959</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12.81%</t>
+          <t>2.98%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-2.01%</t>
+          <t>-11.75%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>58.54%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Henrico County</t>
+          <t>Hanover County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$204,165,871</t>
+          <t>$5,799,141</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9.44%</t>
+          <t>9.82%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-7.92%</t>
+          <t>-8.43%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>60.18%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Henry County</t>
+          <t>Harrisonburg city</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$1,104,948</t>
+          <t>$24,688,977</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>33.94%</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-2.95%</t>
+          <t>-2.01%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>58.54%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Highland County</t>
+          <t>Henrico County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$2,155,625</t>
+          <t>$204,165,871</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>23.62%</t>
+          <t>9.44%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-12.09%</t>
+          <t>-7.92%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>60.18%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hopewell city</t>
+          <t>Henry County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$312,847</t>
+          <t>$1,104,948</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-7.01%</t>
+          <t>33.94%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-18.38%</t>
+          <t>-2.95%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Isle of Wight County</t>
+          <t>Highland County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$1,243,295</t>
+          <t>$2,155,625</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>23.62%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-62.91%</t>
+          <t>-12.09%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>James City County</t>
+          <t>Hopewell city</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$19,888,916</t>
+          <t>$312,847</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>-7.01%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-6.66%</t>
+          <t>-18.38%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>King William County</t>
+          <t>Isle of Wight County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$3,972,442</t>
+          <t>$1,243,295</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-75.19%</t>
+          <t>-62.91%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>King and Queen County</t>
+          <t>James City County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$66,349</t>
+          <t>$19,888,916</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-4.64%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-37.63%</t>
+          <t>-6.66%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lancaster County</t>
+          <t>King William County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$306,340</t>
+          <t>$3,972,442</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16.91%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10.40%</t>
+          <t>-75.19%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>King and Queen County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$13,909,554</t>
+          <t>$66,349</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>-4.64%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-62.37%</t>
+          <t>-37.63%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2639,679 +2639,679 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lexington city</t>
+          <t>Lancaster County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$4,467,482</t>
+          <t>$306,340</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>11.90%</t>
+          <t>16.91%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-4.71%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$63,148,319</t>
+          <t>$13,909,554</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12.62%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-5.26%</t>
+          <t>-62.37%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>61.29%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Louisa County</t>
+          <t>Lexington city</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$2,600,546</t>
+          <t>$4,467,482</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21.14%</t>
+          <t>11.90%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-60.09%</t>
+          <t>-4.71%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lunenburg County</t>
+          <t>Loudoun County</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$4,365,119</t>
+          <t>$63,148,319</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-18.98%</t>
+          <t>12.62%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-60.15%</t>
+          <t>-5.26%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>61.29%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Lynchburg city</t>
+          <t>Louisa County</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$88,944,143</t>
+          <t>$2,600,546</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12.67%</t>
+          <t>21.14%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-6.53%</t>
+          <t>-60.09%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>58.70%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Lunenburg County</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$3,333,775</t>
+          <t>$4,365,119</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>-18.98%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-25.09%</t>
+          <t>-60.15%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Manassas city</t>
+          <t>Lynchburg city</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$20,435,759</t>
+          <t>$88,944,143</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>12.67%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-15.22%</t>
+          <t>-6.53%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>58.70%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Martinsville city</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$13,771,427</t>
+          <t>$3,333,775</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17.14%</t>
+          <t>2.92%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-12.65%</t>
+          <t>-25.09%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mathews County</t>
+          <t>Manassas city</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$820,942</t>
+          <t>$20,435,759</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.86%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-42.94%</t>
+          <t>-15.22%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mecklenburg County</t>
+          <t>Martinsville city</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$6,834,365</t>
+          <t>$13,771,427</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10.53%</t>
+          <t>17.14%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-34.11%</t>
+          <t>-12.65%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>68.75%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Middlesex County</t>
+          <t>Mathews County</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$11,213,068</t>
+          <t>$820,942</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.68%</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-33.71%</t>
+          <t>-42.94%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Mecklenburg County</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$152,667,434</t>
+          <t>$6,834,365</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>15.97%</t>
+          <t>10.53%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-5.20%</t>
+          <t>-34.11%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>59.52%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nelson County</t>
+          <t>Middlesex County</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$4,237,068</t>
+          <t>$11,213,068</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7.36%</t>
+          <t>16.68%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-4.78%</t>
+          <t>-33.71%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>New Kent County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$550,972</t>
+          <t>$152,667,434</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>15.97%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-88.47%</t>
+          <t>-5.20%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>59.52%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Newport News city</t>
+          <t>Nelson County</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$48,938,102</t>
+          <t>$4,237,068</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5.93%</t>
+          <t>7.36%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-7.89%</t>
+          <t>-4.78%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Norfolk city</t>
+          <t>New Kent County</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$85,247,760</t>
+          <t>$550,972</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4.89%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-14.94%</t>
+          <t>-88.47%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>69.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Northampton County</t>
+          <t>Newport News city</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$6,166,996</t>
+          <t>$48,938,102</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>18.76%</t>
+          <t>5.93%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>-7.89%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Northumberland County</t>
+          <t>Norfolk city</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$1,778,995</t>
+          <t>$85,247,760</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20.96%</t>
+          <t>4.89%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-5.49%</t>
+          <t>-14.94%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>69.33%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Norton city</t>
+          <t>Northampton County</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$4,265,937</t>
+          <t>$6,166,996</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>38.45%</t>
+          <t>18.76%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-26.92%</t>
+          <t>-0.76%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nottoway County</t>
+          <t>Northumberland County</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$1,075,283</t>
+          <t>$1,778,995</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21.12%</t>
+          <t>20.96%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-1.89%</t>
+          <t>-5.49%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Orange County</t>
+          <t>Norton city</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$2,843,558</t>
+          <t>$4,265,937</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>38.45%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-12.25%</t>
+          <t>-26.92%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Page County</t>
+          <t>Nottoway County</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3321,253 +3321,253 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$1,583,969</t>
+          <t>$1,075,283</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>19.13%</t>
+          <t>21.12%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-40.05%</t>
+          <t>-1.89%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Patrick County</t>
+          <t>Orange County</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$537,847</t>
+          <t>$2,843,558</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-39.79%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-54.43%</t>
+          <t>-12.25%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Petersburg city</t>
+          <t>Page County</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$3,546,477</t>
+          <t>$1,583,969</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>5.30%</t>
+          <t>19.13%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-49.60%</t>
+          <t>-40.05%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Pittsylvania County</t>
+          <t>Patrick County</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$7,553,614</t>
+          <t>$537,847</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>18.44%</t>
+          <t>-39.79%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-13.28%</t>
+          <t>-54.43%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Poquoson city</t>
+          <t>Petersburg city</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$18,341</t>
+          <t>$3,546,477</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>5.30%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-55.80%</t>
+          <t>-49.60%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Portsmouth city</t>
+          <t>Pittsylvania County</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$9,599,003</t>
+          <t>$7,553,614</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20.37%</t>
+          <t>18.44%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-37.89%</t>
+          <t>-13.28%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Powhatan County</t>
+          <t>Poquoson city</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$101,997</t>
+          <t>$18,341</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>44.43%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>36.94%</t>
+          <t>-55.80%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Prince Edward County</t>
+          <t>Portsmouth city</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$24,436,508</t>
+          <t>$9,599,003</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.21%</t>
+          <t>20.37%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-31.50%</t>
+          <t>-37.89%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Prince George County</t>
+          <t>Powhatan County</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3577,81 +3577,81 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$3,409,997</t>
+          <t>$101,997</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-8.36%</t>
+          <t>44.43%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-38.82%</t>
+          <t>36.94%</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Prince William County</t>
+          <t>Prince Edward County</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$55,863,236</t>
+          <t>$24,436,508</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>3.21%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-17.57%</t>
+          <t>-31.50%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>71.74%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Pulaski County</t>
+          <t>Prince George County</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$1,272,107</t>
+          <t>$3,409,997</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-8.36%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-9.69%</t>
+          <t>-38.82%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3663,71 +3663,71 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Radford city</t>
+          <t>Prince William County</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$8,803,688</t>
+          <t>$55,863,236</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.32%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-74.89%</t>
+          <t>-17.57%</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>71.74%</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rappahannock County</t>
+          <t>Pulaski County</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$1,517,334</t>
+          <t>$1,272,107</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>30.07%</t>
+          <t>-0.69%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-9.86%</t>
+          <t>-9.69%</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Richmond County</t>
+          <t>Radford city</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3737,17 +3737,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$2,714,330</t>
+          <t>$8,803,688</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>19.40%</t>
+          <t>7.32%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-53.92%</t>
+          <t>-74.89%</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3759,743 +3759,743 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Richmond city</t>
+          <t>Rappahannock County</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$199,486,426</t>
+          <t>$1,517,334</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>16.05%</t>
+          <t>30.07%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-7.18%</t>
+          <t>-9.86%</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>56.98%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Roanoke County</t>
+          <t>Richmond County</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$7,989,141</t>
+          <t>$2,714,330</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10.72%</t>
+          <t>19.40%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>-53.92%</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Roanoke city</t>
+          <t>Richmond city</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$67,921,219</t>
+          <t>$199,486,426</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>5.50%</t>
+          <t>16.05%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-19.28%</t>
+          <t>-7.18%</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>81.16%</t>
+          <t>56.98%</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rockbridge County</t>
+          <t>Roanoke County</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$8,053,418</t>
+          <t>$7,989,141</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>10.72%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-13.71%</t>
+          <t>0.55%</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>41.67%</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Rockingham County</t>
+          <t>Roanoke city</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$9,485,761</t>
+          <t>$67,921,219</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>5.50%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-10.30%</t>
+          <t>-19.28%</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>69.57%</t>
+          <t>81.16%</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Russell County</t>
+          <t>Rockbridge County</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$4,230,841</t>
+          <t>$8,053,418</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-53.69%</t>
+          <t>-13.71%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Salem city</t>
+          <t>Rockingham County</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$5,870,896</t>
+          <t>$9,485,761</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-3.93%</t>
+          <t>-10.30%</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>69.57%</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Scott County</t>
+          <t>Russell County</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$6,944,224</t>
+          <t>$4,230,841</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>11.38%</t>
+          <t>-0.81%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>-33.98%</t>
+          <t>-53.69%</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Shenandoah County</t>
+          <t>Salem city</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$9,571,552</t>
+          <t>$5,870,896</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>0.86%</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-9.53%</t>
+          <t>-3.93%</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Smyth County</t>
+          <t>Scott County</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$7,063,838</t>
+          <t>$6,944,224</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>18.14%</t>
+          <t>11.38%</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-39.34%</t>
+          <t>-33.98%</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Southampton County</t>
+          <t>Shenandoah County</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$5,444,240</t>
+          <t>$9,571,552</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-38.72%</t>
+          <t>-9.53%</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Spotsylvania County</t>
+          <t>Smyth County</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$12,701,657</t>
+          <t>$7,063,838</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>18.14%</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-22.60%</t>
+          <t>-39.34%</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Stafford County</t>
+          <t>Southampton County</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$4,732,035</t>
+          <t>$5,444,240</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-7.48%</t>
+          <t>-38.72%</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Staunton city</t>
+          <t>Spotsylvania County</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$9,674,289</t>
+          <t>$12,701,657</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>14.43%</t>
+          <t>0.41%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-4.91%</t>
+          <t>-22.60%</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Suffolk city</t>
+          <t>Stafford County</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$2,139,348</t>
+          <t>$4,732,035</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>9.63%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-8.59%</t>
+          <t>-7.48%</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Surry County</t>
+          <t>Staunton city</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$38,201</t>
+          <t>$9,674,289</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>11.58%</t>
+          <t>14.43%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>5.83%</t>
+          <t>-4.91%</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sussex County</t>
+          <t>Suffolk city</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$1,340,155</t>
+          <t>$2,139,348</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>12.77%</t>
+          <t>9.63%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-4.35%</t>
+          <t>-8.59%</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Tazewell County</t>
+          <t>Surry County</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$15,729,215</t>
+          <t>$38,201</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>5.47%</t>
+          <t>11.58%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>-22.22%</t>
+          <t>5.83%</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Virginia Beach city</t>
+          <t>Sussex County</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$113,486,910</t>
+          <t>$1,340,155</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>12.77%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>-3.03%</t>
+          <t>-4.35%</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>52.05%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Tazewell County</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$6,531,441</t>
+          <t>$15,729,215</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>5.47%</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>-30.43%</t>
+          <t>-22.22%</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Virginia Beach city</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$42,099,204</t>
+          <t>$113,486,910</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1.70%</t>
+          <t>12.75%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>-46.00%</t>
+          <t>-3.03%</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>86.67%</t>
+          <t>52.05%</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Waynesboro city</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$4,753,451</t>
+          <t>$6,531,441</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4.85%</t>
+          <t>14.21%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>-15.52%</t>
+          <t>-30.43%</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Westmoreland County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$1,938,433</t>
+          <t>$42,099,204</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>16.78%</t>
+          <t>1.70%</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-36.96%</t>
+          <t>-46.00%</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>86.67%</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Williamsburg city</t>
+          <t>Waynesboro city</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4505,61 +4505,61 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$65,067,474</t>
+          <t>$4,753,451</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>4.85%</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-19.45%</t>
+          <t>-15.52%</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Winchester city</t>
+          <t>Westmoreland County</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$57,648,703</t>
+          <t>$1,938,433</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>16.78%</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-0.66%</t>
+          <t>-36.96%</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Wise County</t>
+          <t>Williamsburg city</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4569,182 +4569,150 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$5,476,957</t>
+          <t>$65,067,474</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>24.50%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>-13.36%</t>
+          <t>-19.45%</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wythe County</t>
+          <t>Winchester city</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$2,974,377</t>
+          <t>$57,648,703</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>7.38%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-16.68%</t>
+          <t>-0.66%</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>York County</t>
+          <t>Wise County</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$2,522,506</t>
+          <t>$5,476,957</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>7.42%</t>
+          <t>24.50%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3.59%</t>
+          <t>-13.36%</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Manassas Park city</t>
+          <t>Wythe County</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,974,377</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-16.68%</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>King George County</t>
+          <t>York County</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,522,506</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7.42%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.59%</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2,792</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>$4,571,835,868</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>10.66%</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>64.29%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4723,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4764,135 +4732,135 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$276,060,065</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.85%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.81%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>66.20%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>2,792</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$136,606,449</t>
+          <t>$4,571,835,868</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>10.66%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.30%</t>
+          <t>-9.96%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.43%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$890,873,640</t>
+          <t>$276,060,065</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.68%</t>
+          <t>8.85%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.41%</t>
+          <t>-11.81%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.07%</t>
+          <t>66.20%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4924,7 +4892,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4956,7 +4924,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4988,7 +4956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5020,7 +4988,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5052,7 +5020,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5084,7 +5052,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5116,7 +5084,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5148,32 +5116,64 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2,792</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$4,571,835,868</t>
+          <t>$136,606,449</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.66%</t>
+          <t>11.16%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-9.96%</t>
+          <t>-8.30%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>62.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>11th Congressional district</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$890,873,640</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.68%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-8.41%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>62.07%</t>
         </is>
       </c>
     </row>
@@ -5198,34 +5198,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5257,128 +5257,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>310</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$572,318,855</t>
+          <t>$3,407,075,018</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.45%</t>
+          <t>-4.29%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64.66%</t>
+          <t>60.32%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>730</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$106,994,070</t>
+          <t>$572,318,855</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.31%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.81%</t>
+          <t>-8.45%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.11%</t>
+          <t>64.66%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>446</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$343,023,896</t>
+          <t>$106,994,070</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.30%</t>
+          <t>11.31%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>-7.81%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>53.80%</t>
+          <t>62.11%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$3,407,075,018</t>
+          <t>$343,023,896</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>10.30%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.29%</t>
+          <t>-1.48%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60.32%</t>
+          <t>53.80%</t>
         </is>
       </c>
     </row>
@@ -5467,34 +5467,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5526,7 +5526,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5558,7 +5558,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5686,7 +5686,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5718,7 +5718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5750,7 +5750,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5782,64 +5782,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,406,672,934</t>
+          <t>$304,534,489</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.19%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-10.97%</t>
+          <t>-1.19%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.12%</t>
+          <t>54.29%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>614</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$304,534,489</t>
+          <t>$1,406,672,934</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>10.19%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>-10.97%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>54.29%</t>
+          <t>66.12%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/virginia_overview.xlsx
+++ b/data/processed/state_overviews/virginia_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2,792</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$4,571,835,868</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>10.66%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,792</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$4,571,835,868</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.66%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$16,371,418</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>3.26%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-42.26%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>59.18%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$28,923,936</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>15.94%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-3.42%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>59.18%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>55.17%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>145</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$315,775,900</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>11.30%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-3.08%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>55.17%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,515,016</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.54%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-43.88%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$766,238</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>-90.03%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-160.46%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$7,114,822</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2.03%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-45.12%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$762,894</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>12.87%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-13.98%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>57.74%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>168</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$1,224,982,474</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9.41%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-4.94%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>57.74%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$17,020,409</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>4.96%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-38.31%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$2,154,967</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-9.49%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-85.08%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>43.48%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$14,155,421</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>20.48%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>14.73%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>43.48%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$4,268,469</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>-15.06%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-42.29%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$426,502</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>19.46%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-62.58%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$1,922,422</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>16.00%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-6.37%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$1,265,466</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-1.10%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-64.35%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$4,271,107</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>6.48%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-20.03%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$18,773,342</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>32.16%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-3.34%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$6,088,546</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>7.28%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-45.63%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$4,018,705</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>29.21%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-0.07%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$197,023</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>-2.95%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-5.26%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$3,833,416</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>-3.77%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-19.16%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$48,177</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>12.00%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-17.26%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$933,538</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>4.86%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-50.16%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>59.42%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$44,472,505</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>15.32%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-5.48%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>59.42%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>52.63%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$15,900,476</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>9.82%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-2.55%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>52.63%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>75.68%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$12,054,646</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>5.50%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-15.11%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>75.68%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$1,763,477</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>23.64%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>8.00%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$436,288</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>13.71%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>0.97%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$368,537</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>-4.91%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-91.90%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$176,600</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>43.88%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>26.78%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$9,716,585</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>8.84%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-39.03%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$190,952</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>61.91%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-38.09%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>86.36%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$37,397,299</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>11.96%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-25.96%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>86.36%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$275,125</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>23.36%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-11.96%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$1,700</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.81%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>0.35%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$925,921</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>4.58%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-42.33%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$1,604,530</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>15.39%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-24.83%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>58.19%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>342</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$930,901,755</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>11.52%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-4.33%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>58.19%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>93.10%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$57,897,099</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-34.73%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>93.10%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>53.33%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$2,461,411</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>5.48%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-4.78%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>53.33%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>55.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$19,597,023</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>14.59%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-2.97%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>55.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$350,190</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>15.64%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-26.26%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$1,126,345</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>6.43%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-13.88%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>92.86%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$13,633,199</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2.81%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-35.01%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>92.86%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$13,522,234</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1.13%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-76.77%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>38.46%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$1,593,601</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>17.81%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2.31%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>38.46%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$29,318,414</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>8.64%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-11.97%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$4,693,563</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>7.93%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-33.44%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$1,085,552</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>30.61%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-2.55%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$5,477,649</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>11.16%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-17.66%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$3,350,380</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>15.63%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$371,098</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0.17%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-44.16%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$1,440,600</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>15.66%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-19.83%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$1,486,420</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>0.35%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-29.83%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$9,806,812</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>9.86%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-40.53%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$64,651,959</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2.98%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-11.75%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$5,799,141</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>9.82%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-8.43%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>58.54%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$24,688,977</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>12.81%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-2.01%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>58.54%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>60.18%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>113</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$204,165,871</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>9.44%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-7.92%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>60.18%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$1,104,948</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>33.94%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-2.95%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$2,155,625</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>23.62%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-12.09%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$312,847</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>-7.01%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-18.38%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$1,243,295</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2.25%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-62.91%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$19,888,916</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>10.25%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-6.66%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$3,972,442</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0.76%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-75.19%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$66,349</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>-4.64%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-37.63%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$306,340</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>16.91%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>10.40%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$13,909,554</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>4.55%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-62.37%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$4,467,482</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>11.90%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-4.71%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>61.29%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$63,148,319</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>12.62%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>-5.26%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>61.29%</t>
         </is>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>$2,600,546</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>21.14%</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>-60.09%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>$4,365,119</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>-18.98%</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>-60.15%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>58.70%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>$88,944,143</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>12.67%</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-6.53%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>58.70%</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>$3,333,775</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2.92%</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>-25.09%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>$20,435,759</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1.75%</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>-15.22%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2932,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>$13,771,427</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>17.14%</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-12.65%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>68.75%</t>
         </is>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>$820,942</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>5.86%</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-42.94%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>$6,834,365</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>10.53%</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>-34.11%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>$11,213,068</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>16.68%</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>-33.71%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -3060,27 +3060,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>59.52%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>$152,667,434</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>15.97%</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>-5.20%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>59.52%</t>
         </is>
       </c>
     </row>
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>$4,237,068</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>7.36%</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>-4.78%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3124,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>$550,972</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>5.99%</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>-88.47%</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>$48,938,102</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>5.93%</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>-7.89%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -3188,27 +3188,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>69.33%</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>$85,247,760</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>4.89%</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>-14.94%</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>69.33%</t>
         </is>
       </c>
     </row>
@@ -3220,27 +3220,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>$6,166,996</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>18.76%</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>-0.76%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3252,27 +3252,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>$1,778,995</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>20.96%</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>-5.49%</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -3284,27 +3284,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>$4,265,937</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>38.45%</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>-26.92%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>$1,075,283</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>21.12%</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>-1.89%</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -3348,27 +3348,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>$2,843,558</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>8.28%</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>-12.25%</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -3380,27 +3380,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>$1,583,969</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>19.13%</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>-40.05%</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -3412,27 +3412,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>$537,847</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>-39.79%</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>-54.43%</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -3444,27 +3444,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>$3,546,477</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>5.30%</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>-49.60%</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -3476,27 +3476,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>$7,553,614</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>18.44%</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>-13.28%</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -3508,27 +3508,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>$18,341</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>0.25%</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>-55.80%</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3540,27 +3540,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>$9,599,003</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>20.37%</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>-37.89%</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3572,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>$101,997</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>44.43%</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>36.94%</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>$24,436,508</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>3.21%</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>-31.50%</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>81.25%</t>
         </is>
       </c>
     </row>
@@ -3636,27 +3636,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>$3,409,997</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>-8.36%</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>-38.82%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>71.74%</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>$55,863,236</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>4.44%</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>-17.57%</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>71.74%</t>
         </is>
       </c>
     </row>
@@ -3700,27 +3700,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>$1,272,107</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>-0.69%</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>-9.69%</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3732,27 +3732,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>$8,803,688</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>-74.89%</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3764,27 +3764,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>$1,517,334</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>30.07%</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>-9.86%</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>$2,714,330</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>19.40%</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>-53.92%</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3828,27 +3828,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>56.98%</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>$199,486,426</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>-7.18%</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>56.98%</t>
         </is>
       </c>
     </row>
@@ -3860,27 +3860,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>41.67%</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>$7,989,141</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>10.72%</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>0.55%</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>41.67%</t>
         </is>
       </c>
     </row>
@@ -3892,27 +3892,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>81.16%</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>$67,921,219</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>5.50%</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>-19.28%</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>81.16%</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>$8,053,418</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>11.24%</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>-13.71%</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -3956,27 +3956,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>$9,485,761</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>-10.30%</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>69.57%</t>
         </is>
       </c>
     </row>
@@ -3988,27 +3988,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>$4,230,841</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>-0.81%</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>-53.69%</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -4020,27 +4020,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>$5,870,896</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>0.86%</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>-3.93%</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -4052,27 +4052,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>$6,944,224</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>11.38%</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>-33.98%</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4084,27 +4084,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>$9,571,552</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>-9.53%</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -4116,27 +4116,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>$7,063,838</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>18.14%</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>-39.34%</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -4148,27 +4148,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>$5,444,240</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>-38.72%</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -4180,27 +4180,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>$12,701,657</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>-22.60%</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -4212,27 +4212,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>$4,732,035</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>9.31%</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>-7.48%</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -4244,27 +4244,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>$9,674,289</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>14.43%</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>-4.91%</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -4276,27 +4276,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>$2,139,348</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>9.63%</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>-8.59%</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -4308,27 +4308,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>$38,201</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>11.58%</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>5.83%</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -4340,27 +4340,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>$1,340,155</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>12.77%</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>-4.35%</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -4372,27 +4372,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>$15,729,215</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>5.47%</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>-22.22%</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -4404,27 +4404,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>52.05%</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>$113,486,910</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>12.75%</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>-3.03%</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>52.05%</t>
         </is>
       </c>
     </row>
@@ -4436,27 +4436,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>$6,531,441</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>14.21%</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>-30.43%</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -4468,27 +4468,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>86.67%</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>$42,099,204</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1.70%</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>-46.00%</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>86.67%</t>
         </is>
       </c>
     </row>
@@ -4500,27 +4500,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>$4,753,451</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>4.85%</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>-15.52%</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -4532,27 +4532,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>$1,938,433</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>16.78%</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>-36.96%</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -4564,27 +4564,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>91.67%</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>$65,067,474</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>0.78%</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>-19.45%</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>91.67%</t>
         </is>
       </c>
     </row>
@@ -4596,27 +4596,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>$57,648,703</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>11.39%</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>-0.66%</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -4628,27 +4628,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>$5,476,957</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>24.50%</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>-13.36%</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -4660,27 +4660,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>$2,974,377</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>7.38%</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>-16.68%</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -4692,27 +4692,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>$2,522,506</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>7.42%</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>3.59%</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -4737,27 +4737,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -4769,27 +4769,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -4801,379 +4801,379 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,792</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$4,571,835,868</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.66%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>66.20%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>216</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$276,060,065</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.85%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.81%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>66.20%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>62.43%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$160,359,440</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>$136,606,449</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.83%</t>
+          <t>11.16%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.49%</t>
+          <t>-8.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>62.07%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$222,256,707</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.20%</t>
+          <t>$890,873,640</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-11.41%</t>
+          <t>10.68%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67.36%</t>
+          <t>-8.41%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>61.49%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$276,223,087</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.50%</t>
+          <t>$160,359,440</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-9.79%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61.84%</t>
+          <t>-9.83%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>67.36%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$307,332,676</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.58%</t>
+          <t>$222,256,707</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-12.26%</t>
+          <t>5.20%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66.47%</t>
+          <t>-11.41%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>61.84%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$250,893,649</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>$276,223,087</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.77%</t>
+          <t>11.50%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>65.96%</t>
+          <t>-9.79%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>66.47%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$88,290,086</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>$307,332,676</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-19.18%</t>
+          <t>12.58%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>67.42%</t>
+          <t>-12.26%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>65.96%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,641,093,782</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.50%</t>
+          <t>$250,893,649</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-3.88%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>56.88%</t>
+          <t>-9.77%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>67.42%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$321,846,287</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.42%</t>
+          <t>$88,290,086</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-21.08%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>74.06%</t>
+          <t>-19.18%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>56.88%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$136,606,449</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>$1,641,093,782</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8.30%</t>
+          <t>10.50%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>62.43%</t>
+          <t>-3.88%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>74.06%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$890,873,640</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.68%</t>
+          <t>$321,846,287</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-8.41%</t>
+          <t>12.42%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62.07%</t>
+          <t>-21.08%</t>
         </is>
       </c>
     </row>
@@ -5198,187 +5198,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.31%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>975</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$132,012,928</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.45%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-17.19%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.31%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>64.66%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3,407,075,018</t>
+          <t>730</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>$572,318,855</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-4.29%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60.32%</t>
+          <t>-8.45%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>62.11%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$572,318,855</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>$106,994,070</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.45%</t>
+          <t>11.31%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.66%</t>
+          <t>-7.81%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>53.80%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$106,994,070</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.31%</t>
+          <t>$343,023,896</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-7.81%</t>
+          <t>10.30%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62.11%</t>
+          <t>-1.48%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>60.32%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$343,023,896</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.30%</t>
+          <t>$3,407,075,018</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>53.80%</t>
+          <t>-4.29%</t>
         </is>
       </c>
     </row>
@@ -5390,27 +5390,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>62.43%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>173</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$10,411,101</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>29.57%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.40%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>62.43%</t>
         </is>
       </c>
     </row>
@@ -5422,27 +5422,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2,792</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$4,571,835,868</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.66%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -5467,155 +5467,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>60.64%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>282</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$123,435,916</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.72%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-6.47%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>60.64%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>53.75%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>253</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$203,749,851</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>14.96%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-2.76%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>53.75%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>49.09%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$106,608,211</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>19.84%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.20%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>49.09%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>70.46%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$255,513,213</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.18%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-15.11%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>70.46%</t>
         </is>
       </c>
     </row>
@@ -5627,219 +5627,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>35.71%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$98,830,010</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.14%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.57%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>35.71%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>68.24%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>825</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$586,900,772</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.10%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-17.30%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>68.24%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>58.06%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$705,044,341</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.00%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-7.67%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>58.06%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>67.06%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>252</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$722,402,697</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.13%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-18.48%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>67.06%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>59.38%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$58,143,434</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.20%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-3.04%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>59.38%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>66.12%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$304,534,489</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>$1,406,672,934</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>10.19%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>54.29%</t>
+          <t>-10.97%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>54.29%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,406,672,934</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.19%</t>
+          <t>$304,534,489</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10.97%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.12%</t>
+          <t>-1.19%</t>
         </is>
       </c>
     </row>
@@ -5851,27 +5851,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2,792</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$4,571,835,868</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.66%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
